--- a/data/mapping_alpha3_Country.xlsx
+++ b/data/mapping_alpha3_Country.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\GitHub\SOFA 2024\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\GitHub\Country_Snapshots\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B619C918-AA5A-4054-B478-E0F9597742CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FA83E2-A300-4F05-98E5-46F8251A9530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{33C44AA0-F2DD-4818-9A38-8C5D6E240ECA}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>SSA</t>
-  </si>
-  <si>
     <t>R_AFR</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Turkey</t>
+  </si>
+  <si>
+    <t>R_SSA</t>
   </si>
 </sst>
 </file>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76CDF70-20D0-4966-A8B7-20CFA9C5AC04}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -642,18 +642,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -682,10 +682,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -714,10 +714,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -730,7 +730,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -786,26 +786,26 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
         <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -823,6 +823,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010042E92E7B33C78A4A9E37EE3CE1D07C23" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="be478a3e7a78a108573eaae8c7cc1cce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="66f9c1a9-8286-49e7-922b-17b76842e744" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e534b287ec7ca242b14628634a80063d" ns3:_="">
     <xsd:import namespace="66f9c1a9-8286-49e7-922b-17b76842e744"/>
@@ -994,12 +1000,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1671626C-DAC7-44F8-A95E-69C0720F2086}">
   <ds:schemaRefs>
@@ -1009,6 +1009,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A0C9E1-2C77-474A-A523-2F68DFEB7092}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="66f9c1a9-8286-49e7-922b-17b76842e744"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EA6DA14-9063-4CBF-8A12-E3BDF6499604}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1024,20 +1040,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A0C9E1-2C77-474A-A523-2F68DFEB7092}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="66f9c1a9-8286-49e7-922b-17b76842e744"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>